--- a/vpf.xlsx
+++ b/vpf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C441"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,476 +453,7480 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>a1237d61e984cf8c5c5f8e5ac920e2ed</t>
+          <t>db8268e851d005ae91683b0299500167</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Day &amp; Shankar</t>
+          <t>Lal &amp; Parau</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Peddireddi &amp; Penmatcha</t>
+          <t>Chung &amp; Yuan</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2306e3ca11346166ec57ef834568cbb2</t>
+          <t>1e59196682637875eb419f9aed91fad9</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chun &amp; Kumar</t>
+          <t>Lal &amp; Parau</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Gilburn &amp; Sholes</t>
+          <t>Chopra &amp; Singh</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>f9617b87556a08271fcf622a63ab46fe</t>
+          <t>4b4d5f8c9372531426a440996cd77d2e</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jiang &amp; Li</t>
+          <t>Chung &amp; Yuan</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Lewis &amp; Seth</t>
+          <t>Kanyal &amp; Ramisetty</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>945f5b867596258d978ba1dc770e4b57</t>
+          <t>42f5d506349c291ae447483f338ce5d0</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Durvasula &amp; Li</t>
+          <t>Chopra &amp; Singh</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Toric &amp; Troester</t>
+          <t>Chopra &amp; Singh</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>544372dfc7f5fb7b26b377d78107fbf0</t>
+          <t>dff4a08eed3a0ee8fd7e91fb3f33fc25</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Berg &amp; Rumsey</t>
+          <t>Kanyal &amp; Ramisetty</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Bauer &amp; Patel</t>
+          <t>Sanyal &amp; Tambe</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>dbf15b8a22cf9bfa8bbdc317467e3dcb</t>
+          <t>544d2b96a8d1e68d04ff958f154e4473</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Proctor &amp; Watts</t>
+          <t>Chung &amp; Yuan</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Korzay &amp; Marks</t>
+          <t>Gurudu &amp; Jiang</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>21a39da4c1a5dd6f5632127dad12c250</t>
+          <t>b97f7aaa2b0d2e882a7bdb86f3b4f197</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Khan &amp; Wong</t>
+          <t>Lal &amp; Parau</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Kim &amp; Swenson</t>
+          <t>Mukherjee &amp; Pejavar</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>db4b221322dcce750f67f6df78c2aba0</t>
+          <t>daaf7d613c7703ba25a92f608e239624</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Garcia &amp; Johnson</t>
+          <t>Chopra &amp; Singh</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Curtis &amp; Flores</t>
+          <t>Chun &amp; Kumar</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>5e703a8ec24194d77d658704c1dfd1e3</t>
+          <t>a9065175a31988417f7c843bfbc22b25</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sanyal &amp; Tambe</t>
+          <t>Mukherjee &amp; Pejavar</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Kanyal &amp; Ramisetty</t>
+          <t>Hossain &amp; Pattipati</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>cebc6c5e67427ecbc449102941c05f35</t>
+          <t>bdc567c311772963cf7ee0469d8a1ebc</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Neuner &amp; Talamantez</t>
+          <t>Chung &amp; Yuan</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Saravanan &amp; Sekandari</t>
+          <t>Enwiller &amp; Javadpoor</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>f8f513f9b02efbae0f279ebb9522117d</t>
+          <t>056134af6c614e7410dfb2b244377fb9</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Aragam &amp; Zhong</t>
+          <t>Kanyal &amp; Ramisetty</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Dominguez &amp; Hunter</t>
+          <t>Lupica &amp; Venkatachalam</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>aba07474d0e904a48dbe1d2dd6c2f8fd</t>
+          <t>28b519674049eaba438934b31df5b7b8</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Enwiller &amp; Javadpoor</t>
+          <t>Lal &amp; Parau</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Pike &amp; Planchon</t>
+          <t>Sinha &amp; Zhang</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>f2d143c3a1992b8f419b1e60f496e7f7</t>
+          <t>e254b9d0989ab79cb993df3853199751</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Eugenio &amp; Roman</t>
+          <t>Gurudu &amp; Jiang</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Hays &amp; Justice</t>
+          <t>Desai &amp; Sarwar</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0c213c5e8f4c2463c82accc264e08b21</t>
+          <t>1d6265e8607824248c3c12f6bbb97b7a</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Lakshmin &amp; Woulfe</t>
+          <t>Sanyal &amp; Tambe</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Parau &amp; Yousuf</t>
+          <t>Saravanan &amp; Sekandari</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>38a40ab8941fa0151ae2376037f52dd1</t>
+          <t>fe7ae087b57903fa511e4c5bd62a0d26</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Czapek &amp; Geering</t>
+          <t>Cheema &amp; Mantri</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Han &amp; Krieger</t>
+          <t>Panda &amp; Shakir</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>065febeccd0da05a5ba8600d9ecb3b7a</t>
+          <t>344e18b17de538048b75c03a78dbc7bb</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Archuleta &amp; Hockin</t>
+          <t>Panda &amp; Shakir</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Geering &amp; Sunga</t>
+          <t>Goswick &amp; Karanjia</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>64b6321485332aa54095c39465edb349</t>
+          <t>b36c206e0567367c5afe36472c13e605</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Gurudu &amp; Jiang</t>
+          <t>Hossain &amp; Pattipati</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Shakir &amp; Shim</t>
+          <t>Sinha &amp; Zhang</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>811a7c3b2ffffef77f39548901e06621</t>
+          <t>309e2b419703f59f037c2f1aa8dc6012</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Razaghi &amp; Steiner</t>
+          <t>Cheema &amp; Mantri</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Brock &amp; Jones</t>
+          <t>Chakkera &amp; Vishnuvajhala</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>68549125321029d88c5cd2e1bead0c5c</t>
+          <t>e75dcee621e836b7884a1793f255af77</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Changho &amp; Lazna</t>
+          <t>Hsu &amp; Yang</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Bianes &amp; Marquez-Silva</t>
+          <t>Broussard &amp; Subbaraman</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>8dcea20ca6b38eff2e0e73ee00012ecd</t>
+          <t>73d4f698f21933d034b252268c87fd52</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Kumar &amp; Vishnuvajhala</t>
+          <t>Korzay &amp; Marks</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Cho &amp; Kim</t>
+          <t>Kurspahic &amp; Taduri</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>28a380c2ada7987a1af37f4315f92ad5</t>
+          <t>c2997e394a5ed3be8dc9664e97533bdd</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Ghatigar &amp; Wintring</t>
+          <t>Tapia &amp; Todur</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Eng &amp; Schoenborn</t>
+          <t>Kousoulas &amp; Shaik</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3c1f55fc42a8f42defe21123b426791a</t>
+          <t>8cd2a473bb12dd8c8f01767222472fc7</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Luo &amp; Simon</t>
+          <t>Lupica &amp; Venkatachalam</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Krekeler &amp; Tran</t>
+          <t>Azagra &amp; Azagra</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3fde9058a90d55a8a09debc4d680d834</t>
+          <t>1b492ce49dc2408e2254f37d38d65182</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Amanti &amp; Read</t>
+          <t>Lal &amp; Parau</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Obrecht &amp; Petri</t>
+          <t>Desai &amp; Sarwar</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>68cd10a88bb07e6fd360eafdbf35d3d8</t>
+          <t>74a64b305b084ccaf7222b220d35ccac</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Fan &amp; Yu</t>
+          <t>Chopra &amp; Singh</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Azzolina &amp; Dohr</t>
+          <t>Gurudu &amp; Jiang</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>7f94da7d53de68cf60badeb62a64242d</t>
+          <t>39467b2bb0aac1bf33e8d0c6cebf4b27</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Kelly &amp; Ramani</t>
+          <t>Featherstone &amp; Skiba</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Frederiksen &amp; Willyard</t>
+          <t>Chollera &amp; Frausto</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>cdce63d2dc7a0e73107d84c791511f87</t>
+          <t>3bddc581cfdd08d87ef9eb4502485f75</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Buls &amp; Uehara</t>
+          <t>Estrada &amp; Younger</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Kurspahic &amp; Taduri</t>
+          <t>Changho &amp; Lazna</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>7814cfd73d9e2e5ae71bf07becf61d2e</t>
+          <t>b091dd223ccd2f498bbb1928e1248d33</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Nguyen &amp; St.</t>
+          <t>Mukherjee &amp; Pejavar</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Sinha &amp; Zhang</t>
+          <t>Bisson &amp; Piraino</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>bd8258300353711746dd05256d0b7e8b</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Jones &amp; Schoenborn</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Bendok &amp; Prozzillo</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>477087c53595a36b690bd48747da48ab</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Chun &amp; Kumar</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Kang &amp; King</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>53128156afb62512f389c61d6a86dbb1</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Kanyal &amp; Ramisetty</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Corbo &amp; Khan</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>470d5e98b5a453230100de687de59cf1</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Soman &amp; Wang</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Andrews &amp; Saissan</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>865075518070f9ce0ab34c6999d5bce2</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Ahmed &amp; Panayotova</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Goldstein &amp; Patel</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>f39f8bfdffecfdccc4cefbcd15a97f8f</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Day &amp; Shankar</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Kapadia &amp; Narotam</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>7bc1d0af59938507bb91e1d733f5d21a</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Saravanan &amp; Sekandari</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Fink &amp; Khanna</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>26e98347a31b265da15430ca78754905</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Enwiller &amp; Javadpoor</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Jandhyala &amp; Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>3efc052e638894ec1ae857603c0a0652</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Eng &amp; Herig</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Li &amp; Schmidt</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>42559f7a8774a5dcc750147ab901e1c6</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Sanyal &amp; Tambe</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Garcia &amp; Johnson</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>134e0f6024926b38b9d97de220a9c43d</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Chung &amp; Yuan</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Nair &amp; Setia</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>7405a253f7c01f3f8489a4e6d76bcedf</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Mukherjee &amp; Pejavar</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Estrada &amp; Younger</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>0ae3287adcefe7f8d79d5890094fce31</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Sanyal &amp; Tambe</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Sanyal &amp; Tambe</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>95f2206ac2b3a70e484a3b824a19c588</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Ahmed &amp; Panayotova</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Broussard &amp; Subbaraman</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>8b11e9fa8b09b280e7b2b73196d0e8c2</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Bisson &amp; Piraino</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Li &amp; Schmidt</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>42a58e9ab657625b864ee37c22fa2c8a</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Chung &amp; Yuan</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Hossain &amp; Pattipati</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>8c7726e4e2dac8c04f72e96f7775f522</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Chun &amp; Kumar</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Hsu &amp; Yang</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>5e5088c6a946758cac620fdeeb14d49d</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Kanyal &amp; Ramisetty</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Chakkera &amp; Vishnuvajhala</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>111d5e30d0314081b30d27d170a85eff</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Sinha &amp; Zhang</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Jones &amp; Schoenborn</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>47a7b39d43ea2310474482f396c26cdd</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Bendok &amp; Prozzillo</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Goswick &amp; Karanjia</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>f61318be1e02bf7eea20838e9f1e8a21</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Tapia &amp; Todur</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Changho &amp; Lazna</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>ff7ab4378192ce098a2b2c670686e42d</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Azagra &amp; Azagra</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Featherstone &amp; Skiba</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>97448fa599ba86c6ebdfbf9af937b168</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Kurspahic &amp; Taduri</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Kapadia &amp; Narotam</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>1a51db9d3ad6a854f46f8041d430a032</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Gurudu &amp; Jiang</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Korzay &amp; Marks</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>6b55074d143d24cceeba00c1a5bc0374</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Chollera &amp; Frausto</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Kousoulas &amp; Shaik</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>499c2996ddf877f44ab426eb090caf69</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Desai &amp; Sarwar</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Kang &amp; King</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>18ddc16dd1a65acd06f2347ce5218194</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Lupica &amp; Venkatachalam</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Garcia &amp; Johnson</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>6f9c15a24c44a777bec8d167e4419c6d</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Nair &amp; Setia</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Fink &amp; Khanna</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>86c658d92d6965a899bd456335c44926</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Corbo &amp; Khan</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Andrews &amp; Saissan</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>4039bb950f79d911ddb0871ba6312f9c</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Enwiller &amp; Javadpoor</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Day &amp; Shankar</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>8dfdbdbac78df09eafc485a255fbbc8e</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Chopra &amp; Singh</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Lal &amp; Parau</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>0548303de4d4314bfdfaa68d32302637</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Saravanan &amp; Sekandari</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Cheema &amp; Mantri</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>e0d98a7bfdb7f4e75c8a21b5c8316d2b</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Panda &amp; Shakir</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Eng &amp; Herig</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>3e1585001c9397ce6211debc4d3fe9f8</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Soman &amp; Wang</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Goldstein &amp; Patel</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>50e2fa47217cf60268cfa7ddcd1973a4</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Chun &amp; Kumar</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Featherstone &amp; Skiba</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>03171f343b796e6078bc6dc56e98260e</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Tapia &amp; Todur</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Broussard &amp; Subbaraman</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>f0ec1fe991a7d53d20e6907cd54c782e</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Mukherjee &amp; Pejavar</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Hsu &amp; Yang</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>48fb72640206b3cea68bbd5519fa2278</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Cheema &amp; Mantri</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Jandhyala &amp; Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>a0e94f64623a3906be88b3e98a5f27ef</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Lal &amp; Parau</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Estrada &amp; Younger</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>1ee86b41fced84e0970ce7ee1f1c08c3</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Bisson &amp; Piraino</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Corbo &amp; Khan</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>994b7d81a0bc292ee25a8e16a195605f</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Soman &amp; Wang</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Korzay &amp; Marks</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>0f624fc3c4c50a3db12404300da09522</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Bendok &amp; Prozzillo</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Goldstein &amp; Patel</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>784530cd3806bf5449a8d0a123225c3d</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Lupica &amp; Venkatachalam</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Saravanan &amp; Sekandari</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>1fca804c3ed2c7880cf38cec10822223</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Eng &amp; Herig</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Chung &amp; Yuan</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>0d2949adac419f44d44e1ef84890ee1b</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Gurudu &amp; Jiang</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Kousoulas &amp; Shaik</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>fd621eac814324be5d3f3cfbab7d2b81</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Azagra &amp; Azagra</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Kurspahic &amp; Taduri</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>16e7818ec9cd59550af78b992b49f965</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Sinha &amp; Zhang</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Kanyal &amp; Ramisetty</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>d531607b3da9789faa3a540b720f3074</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Desai &amp; Sarwar</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Chollera &amp; Frausto</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>683eb18a7560ca151d91fba1756f90a0</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Panda &amp; Shakir</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Ahmed &amp; Panayotova</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>812c4fadfb5f6db2cbcf55faa4548ba2</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Jones &amp; Schoenborn</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Kapadia &amp; Narotam</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>610e4f2bacd69f4d8150475a3dab4ebf</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Chopra &amp; Singh</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Changho &amp; Lazna</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>3d9dcb422569920947386d5fe078502c</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Chakkera &amp; Vishnuvajhala</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Kang &amp; King</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>c205c9791b0336b316f6742db0e1c9ba</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Nair &amp; Setia</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Andrews &amp; Saissan</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>6772bbc82f65e141dbc5bb39330c1af2</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Li &amp; Schmidt</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Day &amp; Shankar</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>845c98ded5afc2ac077dd263a998fa7e</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Fink &amp; Khanna</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Goswick &amp; Karanjia</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>47c332d8afad88859375c77fa200735a</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Hossain &amp; Pattipati</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Sanyal &amp; Tambe</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>95d583363aadd864246440fa87bb0f83</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Garcia &amp; Johnson</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Enwiller &amp; Javadpoor</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>7df17a1423213cd4f6745eba8453c64b</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Bendok &amp; Prozzillo</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Kousoulas &amp; Shaik</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>a5af0ba2c161490bff682aa80da2bae6</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Hossain &amp; Pattipati</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Ahmed &amp; Panayotova</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>37fb672a08f7f7fb45a530b742bddfa9</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Jandhyala &amp; Kumar</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Chollera &amp; Frausto</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>5ddb296a228e1596a9a3ded52d790768</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Kang &amp; King</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Estrada &amp; Younger</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>769f4ef24a8ac2641ee0afa2c4537a8b</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Cheema &amp; Mantri</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Nair &amp; Setia</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>96ed95bf64abd4b583def9870811d19c</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Sanyal &amp; Tambe</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Tapia &amp; Todur</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>dd349ca9663d5fa83912902681a91650</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Kurspahic &amp; Taduri</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Bisson &amp; Piraino</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>d6583207f181bd7640ab0e3433568457</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Day &amp; Shankar</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Eng &amp; Herig</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>773ac7bad3836549311f8ed57bc5c933</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Lal &amp; Parau</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Fink &amp; Khanna</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>740236e229d5b1dac9a92f31d39a2363</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Corbo &amp; Khan</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Li &amp; Schmidt</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>d461b9daa76139843cf9e285807784c3</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Desai &amp; Sarwar</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Chun &amp; Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>3df2cc28ebe23896b5ca4d39b45242b1</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Kapadia &amp; Narotam</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Soman &amp; Wang</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>334c4712471f5039219cb5847d7cbcd7</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Korzay &amp; Marks</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Azagra &amp; Azagra</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>0bccca5852180cd246913f62bd4c6f2e</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Sinha &amp; Zhang</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Goldstein &amp; Patel</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>b27f5feaf719078431593b1cfbb7a1f6</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Kanyal &amp; Ramisetty</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Broussard &amp; Subbaraman</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>f3e05fe08bd9cdd3607b7004d76c9088</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Saravanan &amp; Sekandari</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Featherstone &amp; Skiba</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>00eecd7cfb330d3dd74f2ea206ff5c33</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Gurudu &amp; Jiang</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Mukherjee &amp; Pejavar</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>b4979c496c2bd7e9b404230327962efb</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Andrews &amp; Saissan</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Hsu &amp; Yang</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>0a315ca0c898500defde2840ea140961</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Chung &amp; Yuan</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Lupica &amp; Venkatachalam</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>68b9105a4badd884b0a333d518b34437</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Goswick &amp; Karanjia</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Changho &amp; Lazna</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>e99a980e66c4fc78d71d38e5d229a83b</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Chakkera &amp; Vishnuvajhala</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Jones &amp; Schoenborn</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>edbc8179f86b69069fdb2ee20f79570f</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Chopra &amp; Singh</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Garcia &amp; Johnson</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>d127e07252906f8d0f9a900e8b85ba9b</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Enwiller &amp; Javadpoor</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Panda &amp; Shakir</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>3be6efa5e1af284e775a9795177d5660</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Lal &amp; Parau</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Mukherjee &amp; Pejavar</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>ac2c3206986684c7f877c9251bad6e3d</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Lal &amp; Parau</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Chopra &amp; Singh</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>9d8e3f6b223803551481ea8fb9e10439</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Mukherjee &amp; Pejavar</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Korzay &amp; Marks</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>7a1567f77328a967f007f3cff22ac89f</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Lal &amp; Parau</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Kamaraj &amp; Yeddanapudi</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>028247a06e1d4478485cd136f05f3dc0</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Mukherjee &amp; Pejavar</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Shigekane &amp; Zidek</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>6a31bd25a66a18fd603eb5ee3f569c1b</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Chopra &amp; Singh</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Kanyal &amp; Ramisetty</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>990c76883fbb3fa145217574dab7f9ae</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Korzay &amp; Marks</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Nagasubramanian &amp; Tallapragada</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>065de39e8b3b6b3b7a43861ec943c26d</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Chopra &amp; Singh</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Nair &amp; Setia</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>8eee8768e60a8aeff5912e74a0cf697c</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Nagasubramanian &amp; Tallapragada</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Cho &amp; Kim</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>9f5f16433e8d5c9250dde6051909d728</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Korzay &amp; Marks</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Saravanan &amp; Sekandari</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>465f3a39790b2bfb9328ab843d4b467d</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Kanyal &amp; Ramisetty</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Balian &amp; Pendurthi</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>4d7f425ebf409e753fb60a56545cd436</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Shigekane &amp; Zidek</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Karthikeyan &amp; Madaan</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>b508d05b00a7b8b7d66ee65a4d46d62e</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Kamaraj &amp; Yeddanapudi</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Chatterjee &amp; Srirambhatla</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>1ece860df1c1b253f0828561661bd23e</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Korzay &amp; Marks</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Kapadia &amp; Mantri</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>5f9fd52b3c7c8a139f3706ec13afc357</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Shigekane &amp; Zidek</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Bisson &amp; Piraino</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>a9b595240ba3ab64cc125a395e670d2b</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Lal &amp; Parau</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Chung &amp; Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>d43698d81476b4671be5974a685ec935</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Balian &amp; Pendurthi</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Saravanan &amp; Sekandari</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>7e0f4d5f73f4b44f36ca13c51ee4713c</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Sinha &amp; Zhang</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Chun &amp; Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>e705b544a8b7a7a4a5fd7536d80f1403</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Chatterjee &amp; Srirambhatla</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Kanyal &amp; Ramisetty</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>be10c185514b001d2288ee0e3e4402c4</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Goon &amp; Portilla-Villota</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Connelly &amp; McDougall</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>9e93e51099c3f0ebd319d25ffc7f2fe5</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Kamaraj &amp; Yeddanapudi</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Chakkera &amp; Vishnuvajhala</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>7b2e0192cad70283ca1acbb8aee1933b</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Mukherjee &amp; Pejavar</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Nagasubramanian &amp; Tallapragada</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>f866998e851bfc776ea5bb36d80f53aa</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Shim &amp; Sun</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Horne &amp; Pickering</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>fe7082f8079fac451c13b2cbef6603e6</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Hariprasad &amp; Konda</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Kousoulas &amp; Shaik</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>41b748e2832a7d8eecc1ff95cd2e5ce8</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Chopra &amp; Singh</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Kurspahic &amp; Taduri</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>1e4284da1f17edbcaca0c05e32cc3285</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Kim &amp; Swenson</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Chadha &amp; Riley</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>be8146de9da14c52b45eeaf88db697ac</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Soman &amp; Wang</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Goetzinger &amp; Moran</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>7b92c7b11e6d5d1f6bf93a29fa787e28</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Astiazaran &amp; Bartholomew</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Jones &amp; Schoenborn</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>a8119cc4e4bd8025577a4c7df09eef50</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Karthikeyan &amp; Madaan</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Moreno &amp; Ng</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>d86503fda138efebe4d203e2eb599c9d</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Jandhyala &amp; Yuan</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Andrews &amp; Saissan</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>62cf8411b2e7efea5bc9a83633d2f9c7</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Cho &amp; Kim</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Day &amp; Shankar</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>015fb0a9d9d274a7a72e2522257cd41c</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Ros &amp; Srinivasan</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Eng &amp; Herig</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>6780a4da6494accf6d076f1c12d861b2</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Nair &amp; Setia</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>McHenry &amp; Schillinger</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>1891ce35393150fc721aa0eb047f0b58</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Horne &amp; Pickering</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Kousoulas &amp; Shaik</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>4c216b69a7b4220f9a1dd3f6c324cf1c</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Nagasubramanian &amp; Tallapragada</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Day &amp; Shankar</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>8e5c6aac4e6fa1c50dea61fb7881d485</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Bisson &amp; Piraino</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Chatterjee &amp; Srirambhatla</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>f781b31bb8c97cf5395d0e8654114503</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Goon &amp; Portilla-Villota</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Soman &amp; Wang</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>56821676cf2cd0b0887bd63202439943</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Kanyal &amp; Ramisetty</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Korzay &amp; Marks</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>4ac01437593cdfbb360e221204f490e7</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Hariprasad &amp; Konda</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Chun &amp; Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>63571f522b20b959a4b1ad3ad338be5c</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Kamaraj &amp; Yeddanapudi</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Balian &amp; Pendurthi</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>839c4299bac78deaecb7ecc2e67bdfa0</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>McHenry &amp; Schillinger</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Ros &amp; Srinivasan</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>a72c746bd68ce7944f7fa11d956540b8</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Mukherjee &amp; Pejavar</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Kurspahic &amp; Taduri</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>bf02231bcbaedb36eba3df8de2942e5f</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Karthikeyan &amp; Madaan</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Shim &amp; Sun</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2e3885716ea10a2966ecd6f6de9dc910</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Lal &amp; Parau</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Nair &amp; Setia</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>eafb67890e218ebf40f754b39f4773e9</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Shigekane &amp; Zidek</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Kapadia &amp; Mantri</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>1910ebabcd90b53e4b375da36cbbee3f</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Saravanan &amp; Sekandari</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Astiazaran &amp; Bartholomew</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>55984e452f2418cd7460b486cedaaafd</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Chopra &amp; Singh</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Chung &amp; Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>27d58d8fdecdbb63d3b7867f00c8c346</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Goetzinger &amp; Moran</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Chadha &amp; Riley</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>804fd029d8e6f77c845a30327a90af47</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Kim &amp; Swenson</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Andrews &amp; Saissan</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2cc4cd8da1004e46cbc6173cbfef2691</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Eng &amp; Herig</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Sinha &amp; Zhang</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>f3ff2e2db26f61b1007d9dcdc9c6f1a4</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Jandhyala &amp; Yuan</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Connelly &amp; McDougall</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>1fb553458797e32fcfb61c83cd977a57</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Chakkera &amp; Vishnuvajhala</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Jones &amp; Schoenborn</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>e2bf33f8d61f9b18d161e55c489fb7af</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Cho &amp; Kim</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Moreno &amp; Ng</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>97ae331b869eb93523789fa46cf74d82</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Kanyal &amp; Ramisetty</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Connelly &amp; McDougall</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>392b88f1955a7d0fac92a36a3a9cf1e6</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Nagasubramanian &amp; Tallapragada</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Eng &amp; Herig</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>c32cfc4584f5eeca9161a21cfc89008b</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Mukherjee &amp; Pejavar</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Horne &amp; Pickering</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>750baf1fa98c381bd9052ec009a84a81</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Saravanan &amp; Sekandari</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Soman &amp; Wang</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>984afabfbf2be62e742ccbcd25758263</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Shigekane &amp; Zidek</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Goetzinger &amp; Moran</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>283f6f37d555f26c90ef30c02d186e21</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Kapadia &amp; Mantri</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Kamaraj &amp; Yeddanapudi</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>dce13e219377f3dca56830ba9b14acb7</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Nair &amp; Setia</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Astiazaran &amp; Bartholomew</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>f084ad09316d35cdf97ec9a2bfbfc6cf</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Balian &amp; Pendurthi</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Kim &amp; Swenson</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>606863e2b8e151f7982a31d33a1f2bbc</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Chung &amp; Kumar</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Andrews &amp; Saissan</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>6108f4b5392937ded1906846409d6dc9</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Jones &amp; Schoenborn</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Jandhyala &amp; Yuan</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>b82b3c650fba94b6e510a0868a2bd406</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Lal &amp; Parau</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Goon &amp; Portilla-Villota</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>5b4447a9129335e5ccc0a63f21a47d72</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Chakkera &amp; Vishnuvajhala</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Shim &amp; Sun</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>4c71c8ce7c123ac574e3c53ca0c470c9</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>McHenry &amp; Schillinger</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Bisson &amp; Piraino</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>0c28dfa659e28b97d92573ef3ce8c5b2</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Chatterjee &amp; Srirambhatla</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Cho &amp; Kim</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>c14f41e85d6e9b8549db240e8b79e835</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Korzay &amp; Marks</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Sinha &amp; Zhang</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>8235c80af5f80d30e5997b0199fec68a</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Chun &amp; Kumar</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Chadha &amp; Riley</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>b935f57ae73b6fd610ec5ca5002cdef7</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Chopra &amp; Singh</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Moreno &amp; Ng</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>628494a22547c544dcf2cfd8146d5d80</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Kurspahic &amp; Taduri</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Day &amp; Shankar</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>5999b7a9c9af6d340af04a33fdbcc279</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Ros &amp; Srinivasan</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Hariprasad &amp; Konda</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2ba6dea8a0c87c297bbfeb2d188b98f2</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Karthikeyan &amp; Madaan</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Kousoulas &amp; Shaik</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>b80ac292ff910502bc03b28a8e7b9b51</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Sinha &amp; Zhang</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Kousoulas &amp; Shaik</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>703c120119a093357ab7de94befc3a4c</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Mukherjee &amp; Pejavar</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Hariprasad &amp; Konda</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>17e914000cacf604606ab68b8f60f347</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Astiazaran &amp; Bartholomew</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Goetzinger &amp; Moran</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>ff9180689101c45ad09313b3c99f2a2b</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Gurudu &amp; Shembekar</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Nair &amp; Setia</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>ab85b30961a37d7b17452d30f3f29e63</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Balian &amp; Pendurthi</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Goon &amp; Portilla-Villota</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>a8ad89a3ccb51054397b8d94511552fe</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Kamaraj &amp; Yeddanapudi</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Jones &amp; Schoenborn</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>22ce55428d2a7ec116e1f47d6834d8cc</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Cho &amp; Kim</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Andrews &amp; Saissan</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>9afcf52d96341f32137faaa937fc9b0e</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Kapadia &amp; Mantri</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Jandhyala &amp; Yuan</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>5580672dc91ec0f90110abafeaddf3fb</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Lal &amp; Parau</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Ros &amp; Srinivasan</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>5f0e21fd6af3e78b05d0b8815176a24a</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Chopra &amp; Singh</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Kim &amp; Swenson</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>fdcf2676dbcd0b05a83074d5c01b0322</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Chung &amp; Kumar</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Chadha &amp; Riley</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>775aba34d7455047af4f5ccf58bb72a0</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Bisson &amp; Piraino</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Chakkera &amp; Vishnuvajhala</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>e6d7bc06f5180529ce511efeb8dede6b</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Moreno &amp; Ng</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Chun &amp; Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>ea2fd542b67357c521e0e1d25cafea22</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Kanyal &amp; Ramisetty</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Horne &amp; Pickering</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>6276498e8b2413bb2413d8f4c6c99078</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Shigekane &amp; Zidek</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Saravanan &amp; Sekandari</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>b97c25150efcee67358aee0737e5770e</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Chatterjee &amp; Srirambhatla</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Soman &amp; Wang</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>94e6b3fa9961e03cf1ed2140c6e012f4</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Eng &amp; Herig</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Connelly &amp; McDougall</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>43306620a92f0b0b4db17059f06b65f3</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Kurspahic &amp; Taduri</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Karthikeyan &amp; Madaan</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>3f65c28b2226d75e84896202688e9fca</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Nagasubramanian &amp; Tallapragada</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Shim &amp; Sun</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>1247e6d42153fecff0c7e22a972bff43</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Korzay &amp; Marks</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>McHenry &amp; Schillinger</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>3268ef3a5eb09547819e2e97a6d09414</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Kapadia &amp; Pejavar</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Kurspahic &amp; Taduri</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>c70392b2aadfb00793a00ce66b45696d</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Kurspahic &amp; Taduri</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Khan &amp; Ramani</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>e5470e385ecb25bb5bd54aa1a137b9f4</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Kapadia &amp; Pejavar</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Gurijala &amp; Korpe</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>cb0a3107c83d614718749d526e3f34dc</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Khan &amp; Ramani</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Chopra &amp; Desai</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>27ae9258f08d3e80f590d9efeffa20d3</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Kurspahic &amp; Taduri</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Dinnan &amp; Zawilak</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>4eeafe1e4003a1ee689e334c061fc32b</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Cohen &amp; Moran</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Bisson &amp; Piraino</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>24cc61aa55dc56d28d4f70d29616262e</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Goswick &amp; Karanjia</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Kanyal &amp; Ramisetty</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>5be83eb02bb19a7fdc92d389d9b25b61</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Gurijala &amp; Korpe</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Sanyal &amp; Tambe</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>b0364f3aef92d8ad57d27d4deea66bb6</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Ahmed &amp; O'Connor</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Sankhla &amp; Schmidt</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>853d9c560a49e6b989b4a11fb5bf5c85</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Chopra &amp; Desai</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Korzay &amp; Montrose</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>a4476709b087de097e3e07489ebc7c0f</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Kapadia &amp; Pejavar</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Parau &amp; Sekandari</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>6fde529c722d224af8e6dbb3072f72af</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Moreno &amp; Ng</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Shim &amp; Sun</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>abc5d3aa9f8b34ae813f55e0aefdd471</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Khan &amp; Ramani</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Panda &amp; Shakir</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>f15332851d9a43b8ee6456f98601a1a0</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Featherstone &amp; Skiba</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Haveman &amp; Penmatcha</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>e4b4bd6bf4406ecbc88a6b19e1aeaf8c</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Kapadia &amp; Pejavar</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Khan &amp; Ramani</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>4926b7bea3e5fcd12e7c8d9f3edcf0ab</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Korzay &amp; Montrose</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Shim &amp; Sun</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>39fc27751bab00909d430ea3ed4620c1</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Bisson &amp; Piraino</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Haveman &amp; Penmatcha</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>56a5a35f3fdefef1970bcf63cf607932</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Moreno &amp; Ng</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Ahmed &amp; O'Connor</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>4d7b9d0e3bcd89abc1592d3d63c9d996</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Gurijala &amp; Korpe</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Dinnan &amp; Zawilak</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>90d23e2effe9c27575f31e776c13a7df</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Goswick &amp; Karanjia</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Sankhla &amp; Schmidt</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>e95fa59c8a15a0ab483266fba515377d</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Chopra &amp; Desai</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Featherstone &amp; Skiba</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>470726f8983884b2b041257956782b9b</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Panda &amp; Shakir</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Parau &amp; Sekandari</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>a17b814e495dc33ede9f7b617aff7058</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Kurspahic &amp; Taduri</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Sanyal &amp; Tambe</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>68d01460145c7c0ae5190b1280fa7e47</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Cohen &amp; Moran</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Kanyal &amp; Ramisetty</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>a0c9491ace47d2d493776cab15d826c3</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Khan &amp; Ramani</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Sankhla &amp; Schmidt</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>a44853252810ba25b751c1efe37bd32f</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Dinnan &amp; Zawilak</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Moreno &amp; Ng</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>3e53825527a4ff9ad68bdb663302147a</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Gurijala &amp; Korpe</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Bisson &amp; Piraino</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>94e851748fb4f0ae621efdb9c2164ba6</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Kurspahic &amp; Taduri</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Featherstone &amp; Skiba</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>6811cc1f1a4bba7f6d97867046716f40</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Chopra &amp; Desai</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Haveman &amp; Penmatcha</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>a726e8b6cbdb005921b4a6ab04e69362</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Kapadia &amp; Pejavar</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Ahmed &amp; O'Connor</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>9544c74fc09723c4ecfcdd11c5802a8c</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Panda &amp; Shakir</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Cohen &amp; Moran</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>09534c89fb6bcb0a6b51fb846950a09d</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Korzay &amp; Montrose</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Kanyal &amp; Ramisetty</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2da8cc16a21b79962ccac6cd5563ce44</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Parau &amp; Sekandari</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Shim &amp; Sun</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>247aba452c8f86bab23b6513d5c2c40c</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Sanyal &amp; Tambe</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Goswick &amp; Karanjia</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>d7adb47ddf8b4ef96becf1ba5053a380</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Gurijala &amp; Korpe</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Cohen &amp; Moran</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>1bcc4381f056391cf91f520d0df93364</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Khan &amp; Ramani</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Korzay &amp; Montrose</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>27e0e8b414bc409552da64094b4c7ecf</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Dinnan &amp; Zawilak</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Shim &amp; Sun</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>cc1c2d96cf2d55d762188345146ebe60</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Bisson &amp; Piraino</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Chopra &amp; Desai</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>d6067a07c35ea6b90d18a553eb03f92b</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Parau &amp; Sekandari</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Goswick &amp; Karanjia</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>6fb73f8c0e8037f188c5fa534789c1c2</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Sanyal &amp; Tambe</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Ahmed &amp; O'Connor</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>d55c4326149f38641aae386fb7b1740c</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Kurspahic &amp; Taduri</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Sankhla &amp; Schmidt</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2bfbb326ab3ae403ad764b10bcd514f7</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Kanyal &amp; Ramisetty</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Panda &amp; Shakir</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>e61d9e6ea2b8e4cf27257f7574f51805</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Haveman &amp; Penmatcha</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Moreno &amp; Ng</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>364cb4aab453b39ff18802f54c93d5c4</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Kapadia &amp; Pejavar</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Featherstone &amp; Skiba</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>7eee143491c8f3519c354f2632349836</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Enwiller &amp; Javadpoor</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Sanyal &amp; Tambe</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>0a5bdd78d9f8b88ff5eadf4aa38d5161</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Sanyal &amp; Tambe</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Day &amp; Shankar</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>ac29fa641512e3c79e63b57b80b11fbf</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Enwiller &amp; Javadpoor</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Shareef &amp; Sud</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>d094f83189e9f3a436432ff825a1cc7f</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Day &amp; Shankar</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Khan &amp; Wong</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>8efec7fd99409d62be1f4402d2c6b91e</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Shareef &amp; Sud</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Chen &amp; Rumsey</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>87ad002dae0f5217e813366241b9fd84</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Enwiller &amp; Javadpoor</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Sankhla &amp; Schmidt</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>31b983323aef9aa4270412ab6f80688c</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Sanyal &amp; Tambe</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Han &amp; Krieger</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>e819e8e1db9e4442584045ed4b1d2822</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Day &amp; Shankar</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Emani &amp; Jain</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>29409bc17bbe13563b12b744d946b3ca</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Chen &amp; Rumsey</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Hays &amp; Oldani</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>107316c52cff9958ab8cfd6985f14f1c</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Sanyal &amp; Tambe</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Brock &amp; Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>6d19c5b642055eef23064f884f649088</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Han &amp; Krieger</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Clark &amp; Panayotova</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>32be99483725cb27afd2e47c7bd2313a</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Sankhla &amp; Schmidt</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Chun &amp; Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>86a898aee368960624255186436d8040</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Gilburn &amp; Sholes</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Featherstone &amp; Skiba</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>46bb6a215fcced05d934b13319fddee6</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Shareef &amp; Sud</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Chung &amp; Jandhyala</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>956cae1b40faabb9342d293287be294d</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Corbo &amp; Khan</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Frederiksen &amp; Willyard</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>9d46a787cdd9ec13378ca79ae8aeb60d</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Enwiller &amp; Javadpoor</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Day &amp; Shankar</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>873cabd64d8fa20943fa4d53b410f9c4</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Chen &amp; Rumsey</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Ghatigar &amp; Wintring</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>ac6548cce655ecc7750a91dedb03cde5</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Branson &amp; Cooper</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Chu &amp; Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>a5221468f804dbab63ca4a6e439312d2</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Patel &amp; Patel</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Schoenborn &amp; Sweeney</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>b7060b887385a7a8529f4585e2f8bc9b</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Emani &amp; Jain</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Stewart &amp; Stockton</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>85181e82410d2625693174a775b9ddf5</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Hays &amp; Oldani</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Berg &amp; King</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>23d051babf8969c45dc51dfab6e23624</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Korzay &amp; Moran</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Cheng &amp; Duong</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>c43840bc85b49fc1c55cc445daa118ee</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Herig &amp; Koppell</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Flores &amp; Saissan</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>4878ca02828d2009f71796bac2e61e52</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Khan &amp; Wong</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Shakir &amp; Shim</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>68422edc4141333b9e6fc54610b8bb5a</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Enwiller &amp; Javadpoor</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Clark &amp; Panayotova</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>477e2775a8779e40bc3cbfccb88bf8e5</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Shareef &amp; Sud</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Brock &amp; Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>c2bd89eb1815e783416afde69ba00fa9</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Emani &amp; Jain</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Chun &amp; Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>47746a6ef6fe75bb4d37cb3ae3898c54</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Corbo &amp; Khan</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Chu &amp; Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>5f558ef115b9fed1f1273560d6394201</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Sankhla &amp; Schmidt</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Berg &amp; King</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>9c73dc951977dcf98c14174a3946a297</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Herig &amp; Koppell</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Korzay &amp; Moran</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>3494d966b72f53c776b71ba2f3e46f9d</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Sanyal &amp; Tambe</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Ghatigar &amp; Wintring</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>d45e2c852932615d1b30effc48adc5cc</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Khan &amp; Wong</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Stewart &amp; Stockton</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>e2f90c1d3d810b425a57f33f064f1cda</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Han &amp; Krieger</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Cheng &amp; Duong</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>2fcaeae1ef70a449766a3ab7edfa5004</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Chopra &amp; Desai</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Branson &amp; Cooper</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>578e46255c01161bbaf63f419df5b52c</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Chen &amp; Rumsey</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Patel &amp; Patel</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>a3e84611d5d18ec46859061256e00254</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Day &amp; Shankar</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Shakir &amp; Shim</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>06b8e5c76c05bcf6f1d3a54bba570e18</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Hays &amp; Oldani</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Frederiksen &amp; Willyard</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>16626e9086f4462ca35bf577418d351b</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Gilburn &amp; Sholes</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Flores &amp; Saissan</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>333c26a152c4720467337bf952eb3614</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Schoenborn &amp; Sweeney</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Featherstone &amp; Skiba</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>a8b664886e90beee8a557d8a0dea6975</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Sankhla &amp; Schmidt</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Schoenborn &amp; Sweeney</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>93ce2be959c229cec04a4a477a1e267e</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Chun &amp; Kumar</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Flores &amp; Saissan</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>82997f8f96afba21237dfc3bdc4cf406</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Branson &amp; Cooper</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Corbo &amp; Khan</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>88348dfb75df1fa0185f15ceee832816</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Shakir &amp; Shim</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Shareef &amp; Sud</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>79005e8b209a17e017a2470b4edbb03d</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Chung &amp; Jandhyala</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Herig &amp; Koppell</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>1e916fc0a12cca7e8bcac2bad067c153</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Khan &amp; Wong</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Emani &amp; Jain</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>958878d460f59b753846a6af02f3dfee</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Clark &amp; Panayotova</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Gilburn &amp; Sholes</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>3c994f61b8e43ba35a54def8902e07b3</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Hays &amp; Oldani</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Stewart &amp; Stockton</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>fc6adabe2e3eb4c7fb8e44af6f1be2a9</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Korzay &amp; Moran</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Frederiksen &amp; Willyard</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>c67c657a54d2df35ba98e1bee9f4d649</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Day &amp; Shankar</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Ghatigar &amp; Wintring</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>a8694e6c86239c656afde19d3a332758</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Brock &amp; Jones</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Chu &amp; Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>7d313d7ba647e2915dbad8661a56b041</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Patel &amp; Patel</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Chopra &amp; Desai</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>07c6efa4807ad25c4824e39437f7243e</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Enwiller &amp; Javadpoor</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Featherstone &amp; Skiba</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>923f117da697cd95ba92397f20eb5c65</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Chen &amp; Rumsey</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Cheng &amp; Duong</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>3185ced816d47294fee748427fc7def4</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Sanyal &amp; Tambe</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Berg &amp; King</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>fa11bb4fe8298a82584756617a02c251</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Han &amp; Krieger</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Schoenborn &amp; Sweeney</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>dc43423dfa4333295bef9a4d971fc6e7</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Chun &amp; Kumar</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Herig &amp; Koppell</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>540eb889d4f5e9f36c77f5b432b9c119</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Sanyal &amp; Tambe</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Corbo &amp; Khan</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>776b4a840edb1fbf0f427c8c88182a40</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Shareef &amp; Sud</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Patel &amp; Patel</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>e496031bbc2c7e5c3a2e132339a3a85e</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Enwiller &amp; Javadpoor</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Chopra &amp; Desai</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>360770ee8606165b9b46c3bee49e8cab</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Emani &amp; Jain</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Gilburn &amp; Sholes</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>3f6888a87cb2f80c3211bd90aeb729b2</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Sankhla &amp; Schmidt</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Hays &amp; Oldani</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>f8913f020869c2f32530402572523042</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Cheng &amp; Duong</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Featherstone &amp; Skiba</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>b3b078eccc8d41440e9e035d23a98c4a</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Clark &amp; Panayotova</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Flores &amp; Saissan</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>9b5ad39d7c1d06a02e8163784e2f685f</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Ghatigar &amp; Wintring</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Branson &amp; Cooper</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>db2558cf47d50393c474563361ead9f8</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Shakir &amp; Shim</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Chung &amp; Jandhyala</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>b49587bcb55b9adb20eb12581dfe09cc</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Khan &amp; Wong</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Chen &amp; Rumsey</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>0129f2f391459767954bef3542a9f3fa</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Berg &amp; King</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Korzay &amp; Moran</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>a587e11e163b826aec95af54171a8d9e</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Brock &amp; Jones</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Frederiksen &amp; Willyard</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>ef1ccf80ff478c1430730ef077630dd4</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Day &amp; Shankar</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Chu &amp; Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>48c8d00ef97ab26acacae8090cca05f8</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Sanyal &amp; Tambe</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Enwiller &amp; Javadpoor</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>aad3b8bb90736b7108d5b7d3a7392411</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Sanyal &amp; Tambe</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Czapek &amp; Geering</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>bfdab5edee1ebc4219e9264a626eec45</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Enwiller &amp; Javadpoor</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Eugenio &amp; Roman</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>465cf7ddbf258f3585d85e2f524eaa2d</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Sanyal &amp; Tambe</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Obrecht &amp; Petri</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>64c943e6e98458c769558184dabab944</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Czapek &amp; Geering</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Archuleta &amp; Hockin</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>c0ea2caebc960626ee9f7d7cba430251</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Enwiller &amp; Javadpoor</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Kelly &amp; Ramani</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>55abf27a6e4670527aa5b475fa317b9e</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Eugenio &amp; Roman</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Curtis &amp; Flores</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>167e3be2f4e89098016ff867401fb528</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Kelly &amp; Ramani</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Lakshmin &amp; Woulfe</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>578a5e47ebe14a0a906af45a3852dcfd</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Enwiller &amp; Javadpoor</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Kanyal &amp; Ramisetty</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>31af6ea56c8c23b61038c0ceefd4530e</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Curtis &amp; Flores</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Neuner &amp; Talamantez</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>d51b5c2885ac57358fb8db61b791f78a</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Czapek &amp; Geering</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Changho &amp; Lazna</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>c45423150c8ba07dcf9d5165deac2228</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Obrecht &amp; Petri</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Gurudu &amp; Jiang</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>169b5fd63ae1bcfc7afc021c7118f5b4</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Eugenio &amp; Roman</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Proctor &amp; Watts</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>7f4625592f1f1720f357a0ab3d3f2369</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Archuleta &amp; Hockin</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Kumar &amp; Vishnuvajhala</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>e03f5672c284bb9f3e96bb98c22d5edf</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Sanyal &amp; Tambe</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Garcia &amp; Johnson</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>e0a625876807615284edee2cca0e289c</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Cho &amp; Kim</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Peddireddi &amp; Penmatcha</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>156d291713b47f29d1e3426af2cde1f5</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Lakshmin &amp; Woulfe</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Shakir &amp; Shim</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>9a43cd2548097f9e65f3d29e5bea9fa5</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Hays &amp; Justice</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Brock &amp; Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>8b52271485eaa8bca7b3c2d91535bb41</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Neuner &amp; Talamantez</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Cohen &amp; Mehta</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>a57b30752fd796d9f41c2c3eaf8a4ab3</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Eng &amp; Schoenborn</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Toric &amp; Troester</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>40011f3e5bf4e9e93919edc96986df36</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Proctor &amp; Watts</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Saravanan &amp; Sekandari</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>e1445d3ba22720a50a5e196bfad284fa</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Han &amp; Krieger</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Dominguez &amp; Hunter</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>e0898baa3acef95ca0d748f9f37d683c</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Parau &amp; Yousuf</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Amanti &amp; Read</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>9e572f52b005cbac72c25303dd16a162</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Obrecht &amp; Petri</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Pike &amp; Planchon</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>83d945d1406155c476989b9c72386adf</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Eugenio &amp; Roman</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Luo &amp; Simon</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>8869a0634df8ac9de7019aa359cd0975</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Curtis &amp; Flores</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Geering &amp; Sunga</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>2290cbdfb33cafc5a003832bef8099d5</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Kelly &amp; Ramani</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Razaghi &amp; Steiner</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>4352036acf92d62cdf6ed1e7f7c7c017</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Frederiksen &amp; Willyard</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Bauer &amp; Patel</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>d32877fd1315c7a812eede118f557a4e</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Garcia &amp; Johnson</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Bianes &amp; Marquez-Silva</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>6f6b13d0aed087b60bd9d69a665171f7</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Herig &amp; Koppell</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>Gilburn &amp; Sholes</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>9c9e6cdaea6cca1e7bea44efdc49a146</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Ghatigar &amp; Wintring</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>Kang &amp; King</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>263b6d495aa884dd28896a505f02d842</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Sanyal &amp; Tambe</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>Nguyen &amp; St.</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>8c81bf897c9f731f23e8a3757f7da844</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Kurspahic &amp; Taduri</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>Fan &amp; Yu</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>fa3cd5e07179e7d1359031027bf7d94b</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Sinha &amp; Zhang</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Lewis &amp; Seth</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>a7a5bcc7de4ee972f7f97636028e80dd</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Kanyal &amp; Ramisetty</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Korzay &amp; Marks</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>821610b3e9da0e354299a25245263996</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Buls &amp; Uehara</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>Azzolina &amp; Dohr</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>3e649f0add0dce3f95a1a5252217f726</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Gurudu &amp; Jiang</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Khan &amp; Wong</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>193af41953473240ef8007f70059c4cd</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Kim &amp; Swenson</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>Jiang &amp; Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>2575af4a5c693f74943b141153329b25</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Durvasula &amp; Li</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Krekeler &amp; Tran</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>801c8fd7d3663a9d08022f7525defd86</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Kumar &amp; Vishnuvajhala</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Aragam &amp; Zhong</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>dc4f3a7d9211ef1979242356a5f23bdb</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Enwiller &amp; Javadpoor</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Czapek &amp; Geering</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>b2a638ed9748f6c38d5b97c79ef72215</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Archuleta &amp; Hockin</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Changho &amp; Lazna</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>a4dda72f75c9aa6be3697a64f0a460e2</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Day &amp; Shankar</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Berg &amp; Rumsey</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>a1237d61e984cf8c5c5f8e5ac920e2ed</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Day &amp; Shankar</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Peddireddi &amp; Penmatcha</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>2306e3ca11346166ec57ef834568cbb2</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Chun &amp; Kumar</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>Gilburn &amp; Sholes</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>f9617b87556a08271fcf622a63ab46fe</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>Jiang &amp; Li</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>Lewis &amp; Seth</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>945f5b867596258d978ba1dc770e4b57</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Durvasula &amp; Li</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Toric &amp; Troester</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>544372dfc7f5fb7b26b377d78107fbf0</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Berg &amp; Rumsey</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>Bauer &amp; Patel</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>dbf15b8a22cf9bfa8bbdc317467e3dcb</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>Proctor &amp; Watts</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Korzay &amp; Marks</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>21a39da4c1a5dd6f5632127dad12c250</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>Khan &amp; Wong</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>Kim &amp; Swenson</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>db4b221322dcce750f67f6df78c2aba0</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>Garcia &amp; Johnson</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>Curtis &amp; Flores</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>5e703a8ec24194d77d658704c1dfd1e3</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Sanyal &amp; Tambe</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>Kanyal &amp; Ramisetty</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>cebc6c5e67427ecbc449102941c05f35</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>Neuner &amp; Talamantez</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>Saravanan &amp; Sekandari</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>f8f513f9b02efbae0f279ebb9522117d</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>Aragam &amp; Zhong</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>Dominguez &amp; Hunter</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>aba07474d0e904a48dbe1d2dd6c2f8fd</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>Enwiller &amp; Javadpoor</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>Pike &amp; Planchon</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>f2d143c3a1992b8f419b1e60f496e7f7</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>Eugenio &amp; Roman</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>Hays &amp; Justice</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>0c213c5e8f4c2463c82accc264e08b21</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>Lakshmin &amp; Woulfe</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>Parau &amp; Yousuf</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>38a40ab8941fa0151ae2376037f52dd1</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Czapek &amp; Geering</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>Han &amp; Krieger</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>065febeccd0da05a5ba8600d9ecb3b7a</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>Archuleta &amp; Hockin</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>Geering &amp; Sunga</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>64b6321485332aa54095c39465edb349</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>Gurudu &amp; Jiang</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>Shakir &amp; Shim</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>811a7c3b2ffffef77f39548901e06621</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>Razaghi &amp; Steiner</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>Brock &amp; Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>68549125321029d88c5cd2e1bead0c5c</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>Changho &amp; Lazna</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>Bianes &amp; Marquez-Silva</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>8dcea20ca6b38eff2e0e73ee00012ecd</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>Kumar &amp; Vishnuvajhala</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>Cho &amp; Kim</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>28a380c2ada7987a1af37f4315f92ad5</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>Ghatigar &amp; Wintring</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>Eng &amp; Schoenborn</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>3c1f55fc42a8f42defe21123b426791a</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>Luo &amp; Simon</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>Krekeler &amp; Tran</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>3fde9058a90d55a8a09debc4d680d834</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>Amanti &amp; Read</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>Obrecht &amp; Petri</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>68cd10a88bb07e6fd360eafdbf35d3d8</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>Fan &amp; Yu</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>Azzolina &amp; Dohr</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>7f94da7d53de68cf60badeb62a64242d</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>Kelly &amp; Ramani</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>Frederiksen &amp; Willyard</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>cdce63d2dc7a0e73107d84c791511f87</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>Buls &amp; Uehara</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>Kurspahic &amp; Taduri</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>7814cfd73d9e2e5ae71bf07becf61d2e</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>Nguyen &amp; St.</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>Sinha &amp; Zhang</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
           <t>5efbbd97605a6b54fc9b0a1c9c836d4e</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B385" t="inlineStr">
         <is>
           <t>Kang &amp; King</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C385" t="inlineStr">
         <is>
           <t>Herig &amp; Koppell</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>98ddf0241e75376ac7c6fc360fd6b07d</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>Archuleta &amp; Hockin</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>Durvasula &amp; Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>ea31ebe4fb6fa79610af939e84d765e2</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>Kim &amp; Swenson</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>Herig &amp; Koppell</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>161a71ac9220bf7612ecfe6c690fb3e4</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>Fan &amp; Yu</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>Nguyen &amp; St.</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>0ba1462be61a44d04b7eda50784fc7fa</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>Luo &amp; Simon</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>Brock &amp; Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>854a364a8c0ae45652fb28a42dc335a7</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>Kanyal &amp; Ramisetty</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>Eng &amp; Schoenborn</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>a524acaaf1c97f817c2bc64956a74fb6</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>Jiang &amp; Li</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>Cho &amp; Kim</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>5d56db4fd31e70e6294c99f68212e5fb</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>Pike &amp; Planchon</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>Peddireddi &amp; Penmatcha</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>00007c2b96260936ba9fcdb23d73f394</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>Proctor &amp; Watts</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>Azzolina &amp; Dohr</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>ea2ed4d9a131140613daab64e9d2c498</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>Czapek &amp; Geering</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>Buls &amp; Uehara</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>7935c5083ba288b266cc5a8d277d23c4</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>Kurspahic &amp; Taduri</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>Sanyal &amp; Tambe</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>15b90ebce84da170521793e958145436</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>Enwiller &amp; Javadpoor</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>Amanti &amp; Read</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>b2e8c9da78f7dd2d334992b85ad1f494</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>Garcia &amp; Johnson</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>Krekeler &amp; Tran</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>5682c3486a51d5b651ec6c6d9c3451eb</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>Khan &amp; Wong</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>Sinha &amp; Zhang</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>46c2bf10d5982bb34f36619bf8a80959</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>Curtis &amp; Flores</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>Eugenio &amp; Roman</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>10200fe77329b2c9473084dc7c26ae79</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>Kelly &amp; Ramani</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>Toric &amp; Troester</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>f60f947e2de8b22fc8626d064e914cab</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>Kumar &amp; Vishnuvajhala</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>Frederiksen &amp; Willyard</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>f7d21ebe8b0ba1bef8c750e306d9dd34</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>Lewis &amp; Seth</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>Shakir &amp; Shim</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>9f6de660971cb097106b8fdbec1f122c</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>Gilburn &amp; Sholes</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>Berg &amp; Rumsey</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>318889429cfb1bffa07b7089d23981a8</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>Cohen &amp; Mehta</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>Aragam &amp; Zhong</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>bc71dd83c2913ec8e349fd15707735f7</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>Saravanan &amp; Sekandari</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>Chun &amp; Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>4160ac8feb6700a8a39c8b7fc2a4bef7</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>Geering &amp; Sunga</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>Hays &amp; Justice</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>618770215e6638420e58432652f1963d</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>Neuner &amp; Talamantez</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>Han &amp; Krieger</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>bc712160aff0c8072795c91b9b912f13</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>Korzay &amp; Marks</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>Dominguez &amp; Hunter</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>68163f3148fc6441be25efafe583a770</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>Obrecht &amp; Petri</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>Day &amp; Shankar</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>690542d9b00e06fc8bcf0c640a34b9a4</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>Lakshmin &amp; Woulfe</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>Ghatigar &amp; Wintring</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>0297430dc9f3bc1a42e8891507e3c2a0</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>Parau &amp; Yousuf</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>Bauer &amp; Patel</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>efc0bcd333c216c122078d4ec11fdb12</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>Changho &amp; Lazna</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>Razaghi &amp; Steiner</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>2aa6fc269de5a28eee8db958bf9c0d6b</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>Bianes &amp; Marquez-Silva</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>Gurudu &amp; Jiang</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>ef78c2d2258c2375293bf090aecc968c</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>Hays &amp; Justice</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>Frederiksen &amp; Willyard</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>5c292e6850b91e3cf52767efd431e940</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Archuleta &amp; Hockin</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>Parau &amp; Yousuf</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>6e445a31204c8e88be2f4ede370e42c2</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>Gurudu &amp; Jiang</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>Eng &amp; Schoenborn</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>fd8b57905378e3305ff87f8a6a2b272a</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Curtis &amp; Flores</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>Kelly &amp; Ramani</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>592773c82c1694a7ac1f1de290462055</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>Aragam &amp; Zhong</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>Kang &amp; King</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>8e89fbaddbe097a5695298c5d42fbc29</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>Garcia &amp; Johnson</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>Day &amp; Shankar</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>2965d3b58ca0e7f99f1bc31a25f89c1b</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>Geering &amp; Sunga</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>Azzolina &amp; Dohr</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>5a5283d510fcf45388f7fc838a6bc688</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>Sanyal &amp; Tambe</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>Jiang &amp; Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>b902a8a318d063c2bb1c72ebf1106572</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>Shakir &amp; Shim</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>Kumar &amp; Vishnuvajhala</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>b8b2d1e252eb98ba7edb8b5453869369</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>Obrecht &amp; Petri</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>Lakshmin &amp; Woulfe</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>8f8bd3919713999fd2173e1a0d81df95</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>Brock &amp; Jones</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>Bauer &amp; Patel</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>ead1a13be7b70e377ca2f1d4a15fa9ae</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Han &amp; Krieger</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>Cho &amp; Kim</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>ffa15d1f1255499a3745376cf70ff4d9</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>Amanti &amp; Read</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>Buls &amp; Uehara</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>e98875de36ecc05105c8513055c385c6</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>Changho &amp; Lazna</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>Ghatigar &amp; Wintring</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>9d5b6bd26a97c783f674e5fb815ff5b6</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>Saravanan &amp; Sekandari</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>Lewis &amp; Seth</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>de60a850b680b1ac6e43a99df7d3b569</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>Eugenio &amp; Roman</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>Kurspahic &amp; Taduri</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>ddbf666808791adf8ffe38ea76f74c34</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>Nguyen &amp; St.</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>Krekeler &amp; Tran</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>dedb8a8213e05740cd3935e7c5482194</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>Enwiller &amp; Javadpoor</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>Toric &amp; Troester</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>72524b8de5415857107e8e53e2248e5b</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>Sinha &amp; Zhang</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>Luo &amp; Simon</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>1c23593ca775ed64b128566b272384b5</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>Herig &amp; Koppell</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>Cohen &amp; Mehta</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>30df9453aaf8c2f58a7ccc48bd6b1fa5</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>Pike &amp; Planchon</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>Kim &amp; Swenson</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>d2978a36e76e4fddd315eed017cd79ef</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>Razaghi &amp; Steiner</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>Peddireddi &amp; Penmatcha</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>8257881aef24efcfb4b38c233d5030c1</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>Dominguez &amp; Hunter</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>Durvasula &amp; Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>a2af04687732bc0c6af05c84dc9ef1b5</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>Proctor &amp; Watts</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>Gilburn &amp; Sholes</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>02ee7e35227af28ec1790d9358583444</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>Czapek &amp; Geering</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>Chun &amp; Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>62a1d4c08be271f441e8001d59e68917</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>Bianes &amp; Marquez-Silva</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>Fan &amp; Yu</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>657ef98e5091c01839f94318d4f111a2</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>Kanyal &amp; Ramisetty</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>Berg &amp; Rumsey</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>2f6074a2926a32eac6af5a9ae49b9f30</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>Neuner &amp; Talamantez</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>Khan &amp; Wong</t>
         </is>
       </c>
     </row>
